--- a/dataset/models/input/OperationsConstants.xlsx
+++ b/dataset/models/input/OperationsConstants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/models/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BEA19C-53C7-3C4A-B7BA-0D1704697075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E911E7F-BB9D-8C40-963C-F33C26AA2A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="26760" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9260" yWindow="9300" windowWidth="26760" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operations" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
   <si>
     <t>Global constants</t>
   </si>
@@ -377,6 +377,36 @@
   <si>
     <t>{BatteryPack.Weight}*[BatteryPack Quantity]</t>
   </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nameplate Load </t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Project Duration Yearly</t>
+  </si>
+  <si>
+    <t>Project Duration Monthly</t>
+  </si>
+  <si>
+    <t>Annual MWh delivered</t>
+  </si>
+  <si>
+    <t>Project MWh delivered</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>Real WACC</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
 </sst>
 </file>
 
@@ -387,7 +417,7 @@
     <numFmt numFmtId="165" formatCode="#,##0%"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +472,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -514,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -577,6 +615,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -884,10 +930,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -899,294 +945,354 @@
     <col min="5" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
+      <c r="B7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="22"/>
+      <c r="B10"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="14"/>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>58</v>
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>61</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>64</v>
+        <v>4</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
       <c r="B15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>66</v>
+      <c r="C15" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="18"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="14"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="21" t="s">
-        <v>37</v>
-      </c>
       <c r="C21" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
-        <v>40</v>
+        <v>56</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="21"/>
-    </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="11"/>
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="18"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="B29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="14"/>
-    </row>
-    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="4"/>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="21"/>
+    </row>
+    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="21"/>
+    </row>
+    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="14"/>
+    </row>
+    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="14"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataset/models/input/OperationsConstants.xlsx
+++ b/dataset/models/input/OperationsConstants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/models/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E911E7F-BB9D-8C40-963C-F33C26AA2A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F112DF70-F107-8244-B7D5-F9748CB01904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9260" yWindow="9300" windowWidth="26760" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9520" yWindow="8340" windowWidth="26760" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operations" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
   <si>
     <t>Global constants</t>
   </si>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>[Summary.End]-[Summary.Start]</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,6 +503,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB9CDE5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
   </fills>
@@ -552,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -624,6 +632,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -932,8 +943,8 @@
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -962,11 +973,15 @@
       <c r="B3" t="s">
         <v>79</v>
       </c>
+      <c r="C3" s="26" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>80</v>
       </c>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>

--- a/dataset/models/input/OperationsConstants.xlsx
+++ b/dataset/models/input/OperationsConstants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/models/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F112DF70-F107-8244-B7D5-F9748CB01904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68613B5A-2DFC-004D-A171-6F7CC01C1714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9520" yWindow="8340" windowWidth="26760" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
   <si>
     <t>Global constants</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>[Summary.End]-[Summary.Start]</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -944,7 +947,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -975,6 +978,9 @@
       </c>
       <c r="C3" s="26" t="s">
         <v>86</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">

--- a/dataset/models/input/OperationsConstants.xlsx
+++ b/dataset/models/input/OperationsConstants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/models/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68613B5A-2DFC-004D-A171-6F7CC01C1714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269CB2C9-E6BB-C742-A6AF-74CF7EE854EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9520" yWindow="8340" windowWidth="26760" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="7360" windowWidth="26760" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operations" sheetId="1" r:id="rId1"/>
@@ -408,10 +408,10 @@
     <t>%</t>
   </si>
   <si>
-    <t>[Summary.End]-[Summary.Start]</t>
-  </si>
-  <si>
-    <t>date</t>
+    <t>{Project Duration Yearly}*12</t>
+  </si>
+  <si>
+    <t>[Summary.End|year]-[Summary.Start|year]</t>
   </si>
 </sst>
 </file>
@@ -977,9 +977,6 @@
         <v>79</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="19" t="s">
         <v>87</v>
       </c>
     </row>
@@ -987,7 +984,9 @@
       <c r="B4" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="26" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
@@ -1327,7 +1326,7 @@
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/dataset/models/input/OperationsConstants.xlsx
+++ b/dataset/models/input/OperationsConstants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/models/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269CB2C9-E6BB-C742-A6AF-74CF7EE854EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AEB337-1FF7-EA4D-8CCE-369E47BAAAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="7360" windowWidth="26760" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,7 +637,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,7 +947,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/dataset/models/input/OperationsConstants.xlsx
+++ b/dataset/models/input/OperationsConstants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/models/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AEB337-1FF7-EA4D-8CCE-369E47BAAAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366B1176-7BBD-9B44-BA57-21B78E5646E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="7360" windowWidth="26760" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
   <si>
     <t>Global constants</t>
   </si>
@@ -411,7 +411,10 @@
     <t>{Project Duration Yearly}*12</t>
   </si>
   <si>
-    <t>[Summary.End|year]-[Summary.Start|year]</t>
+    <t>(1+[Nominal WACC])/(1+[Inflation Rate])-1</t>
+  </si>
+  <si>
+    <t>[End|year]-[Start|year]</t>
   </si>
 </sst>
 </file>
@@ -947,7 +950,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -977,7 +980,7 @@
         <v>79</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1013,6 +1016,9 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>84</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>85</v>

--- a/dataset/models/input/OperationsConstants.xlsx
+++ b/dataset/models/input/OperationsConstants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/models/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366B1176-7BBD-9B44-BA57-21B78E5646E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137DBD19-95E0-7A44-8836-A00CA63FD598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="7360" windowWidth="26760" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="7360" windowWidth="26760" windowHeight="8500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operations" sheetId="1" r:id="rId1"/>
@@ -33,16 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
-  <si>
-    <t>Global constants</t>
-  </si>
-  <si>
-    <t>Faraday number</t>
-  </si>
-  <si>
-    <t>Ah/mol</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
   <si>
     <t>Gas constant (gas volume per M)</t>
   </si>
@@ -415,6 +406,12 @@
   </si>
   <si>
     <t>[End|year]-[Start|year]</t>
+  </si>
+  <si>
+    <t>AZA</t>
+  </si>
+  <si>
+    <t>Maximum DOD</t>
   </si>
 </sst>
 </file>
@@ -949,7 +946,7 @@
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -964,43 +961,43 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1009,19 +1006,19 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>87</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1033,7 +1030,7 @@
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -1042,52 +1039,52 @@
     <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1096,7 +1093,7 @@
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -1105,115 +1102,115 @@
     <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D27" s="4"/>
     </row>
@@ -1223,7 +1220,7 @@
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B29" s="4"/>
       <c r="D29" s="4"/>
@@ -1231,36 +1228,36 @@
     <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1332,7 +1329,9 @@
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1344,7 +1343,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1353,31 +1352,31 @@
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
-        <v>26.8</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" s="6">
         <v>22400</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" s="7">
         <v>0.2</v>
@@ -1387,13 +1386,13 @@
     <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5">
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1402,7 +1401,7 @@
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -1411,63 +1410,63 @@
     <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" s="5">
         <v>9.1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5">
         <v>16.3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="10">
         <v>0.3</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11">
         <f>C10*C9*C8</f>
         <v>44.498999999999995</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12" s="11">
         <f>C8*C9*2</f>
         <v>296.66000000000003</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1476,7 +1475,7 @@
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -1485,26 +1484,26 @@
     <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15" s="10">
         <v>30</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16" s="11">
         <f>C15*C12/1000</f>
         <v>8.8998000000000008</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1513,7 +1512,7 @@
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -1522,79 +1521,79 @@
     <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C19" s="11">
         <f>C3/(C5*C2)</f>
-        <v>208.955223880597</v>
+        <v>5600</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C20" s="11">
         <f>C19/C4</f>
-        <v>1044.7761194029849</v>
+        <v>28000</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" s="11">
         <f>C20*C16</f>
-        <v>9298.2985074626868</v>
+        <v>249194.40000000002</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C22" s="11">
         <f>C21/C11</f>
-        <v>208.95522388059703</v>
+        <v>5600.0000000000009</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C23" s="11">
         <f>C22*C8</f>
-        <v>1901.4925373134329</v>
+        <v>50960.000000000007</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C24" s="12">
         <f>C23/100000</f>
-        <v>1.9014925373134327E-2</v>
+        <v>0.50960000000000005</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1603,38 +1602,38 @@
     </row>
     <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C26" s="13">
         <f>C21/(C9*C10)</f>
-        <v>1901.4925373134331</v>
+        <v>50960.000000000007</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C27" s="15">
         <f>C26/100000</f>
-        <v>1.9014925373134331E-2</v>
+        <v>0.50960000000000005</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C28" s="13">
         <f>C26/3600</f>
-        <v>0.52819237147595366</v>
+        <v>14.155555555555557</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/dataset/models/input/OperationsConstants.xlsx
+++ b/dataset/models/input/OperationsConstants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/models/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137DBD19-95E0-7A44-8836-A00CA63FD598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5FF32A-28FF-ED41-BD34-CA0AEF0EAAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="7360" windowWidth="26760" windowHeight="8500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
   <si>
     <t>Gas constant (gas volume per M)</t>
   </si>
@@ -67,12 +67,6 @@
   </si>
   <si>
     <t>Farad</t>
-  </si>
-  <si>
-    <t>Dimensions</t>
-  </si>
-  <si>
-    <t>Length</t>
   </si>
   <si>
     <t>cm</t>
@@ -412,6 +406,9 @@
   </si>
   <si>
     <t>Maximum DOD</t>
+  </si>
+  <si>
+    <t>LFP</t>
   </si>
 </sst>
 </file>
@@ -946,8 +943,8 @@
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -961,43 +958,43 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1006,19 +1003,19 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1030,7 +1027,7 @@
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -1039,52 +1036,52 @@
     <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1093,7 +1090,7 @@
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -1102,115 +1099,115 @@
     <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D27" s="4"/>
     </row>
@@ -1220,7 +1217,7 @@
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B29" s="4"/>
       <c r="D29" s="4"/>
@@ -1228,36 +1225,36 @@
     <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1330,7 +1327,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1343,7 +1340,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1352,13 +1349,13 @@
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1401,7 +1398,7 @@
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -1410,47 +1407,47 @@
     <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="C8" s="5">
-        <v>9.1</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5">
         <v>16.3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="10">
         <v>0.3</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="11">
         <f>C10*C9*C8</f>
-        <v>44.498999999999995</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>1</v>
@@ -1459,14 +1456,14 @@
     <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="11">
         <f>C8*C9*2</f>
-        <v>296.66000000000003</v>
+        <v>32.6</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1475,7 +1472,7 @@
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -1484,26 +1481,26 @@
     <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="10">
         <v>30</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="11">
         <f>C15*C12/1000</f>
-        <v>8.8998000000000008</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1512,7 +1509,7 @@
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -1521,79 +1518,79 @@
     <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="11">
         <f>C3/(C5*C2)</f>
         <v>5600</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="11">
         <f>C19/C4</f>
         <v>28000</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="11">
         <f>C20*C16</f>
-        <v>249194.40000000002</v>
+        <v>27384</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="11">
         <f>C21/C11</f>
-        <v>5600.0000000000009</v>
+        <v>5600</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="11">
         <f>C22*C8</f>
-        <v>50960.000000000007</v>
+        <v>5600</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="12">
         <f>C23/100000</f>
-        <v>0.50960000000000005</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1602,38 +1599,38 @@
     </row>
     <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="13">
         <f>C21/(C9*C10)</f>
-        <v>50960.000000000007</v>
+        <v>5600</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" s="15">
         <f>C26/100000</f>
-        <v>0.50960000000000005</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C28" s="13">
         <f>C26/3600</f>
-        <v>14.155555555555557</v>
+        <v>1.5555555555555556</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/dataset/models/input/OperationsConstants.xlsx
+++ b/dataset/models/input/OperationsConstants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/models/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411ADAC2-11B4-9C4D-8AF3-3F338D498342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C772681E-1D1B-2D4F-AF68-4D6474C49E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-40" yWindow="500" windowWidth="29740" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="136">
   <si>
     <r>
       <rPr>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nameplate Load </t>
   </si>
   <si>
     <t>MW</t>
@@ -372,9 +369,6 @@
     <t>k$</t>
   </si>
   <si>
-    <t>Container Cost</t>
-  </si>
-  <si>
     <t>HVAC Cost</t>
   </si>
   <si>
@@ -384,9 +378,6 @@
     <t>Balance of System Cost</t>
   </si>
   <si>
-    <t>({Shelve and Tube Cost}+{Balance of System Cost}+{Container Cost})*1,5</t>
-  </si>
-  <si>
     <t>Battery renewal cost</t>
   </si>
   <si>
@@ -429,27 +420,15 @@
     <t>[System.Skilled Labor + load]+[System.Unskilled Labor + load]</t>
   </si>
   <si>
-    <t>{Container Quantity}*{Container.HVAC Cost}</t>
-  </si>
-  <si>
-    <t>{Container Quantity}*{Balance of System Cost}</t>
-  </si>
-  <si>
     <t>Cabling Cost</t>
   </si>
   <si>
     <t>[Service Life]*360*[Summary.Cycle Need Usage]/1000</t>
   </si>
   <si>
-    <t>{Container Quantity}*[BatterySystem.BatteryPack Quantity]*[BatteryPack.Cell Quantity]*{Cell.Total Cost}</t>
-  </si>
-  <si>
     <t>DC_elec_USDperkWh</t>
   </si>
   <si>
-    <t xml:space="preserve">02 Balloons Cost </t>
-  </si>
-  <si>
     <t>Weight Overhead</t>
   </si>
   <si>
@@ -480,15 +459,9 @@
     <t>{Container.Nominal Capacity}*{BatteryPack.Total Cost Per kWh}/1000</t>
   </si>
   <si>
-    <t>({Battery Packs Cost}+{Shelve and Tubes Cost}+{Balance of System Cost}+{HVAC Cost}+{Other Cost}+{O2 balloons Cost})/{Container.Nominal Capacity}*1000</t>
-  </si>
-  <si>
     <t>System Nominal Power Daily</t>
   </si>
   <si>
-    <t>{System Nominal Power Daily}*{Constants.Global.CONT_BoS_pkWp}/1000</t>
-  </si>
-  <si>
     <t>{Cell.Total Cost Per kWh}*[Cell Quantity]</t>
   </si>
   <si>
@@ -496,6 +469,24 @@
   </si>
   <si>
     <t>[Factory Cost] + [Material Cost]</t>
+  </si>
+  <si>
+    <t>({Shelve and Tubes Cost}+{Balance of System Cost}+[Container.Cost])*1,5</t>
+  </si>
+  <si>
+    <t>{Container Quantity}*[Container.HVAC Cost]</t>
+  </si>
+  <si>
+    <t>({Battery Packs Cost}+{Shelve and Tubes Cost}+{Balance of System Cost}+[HVAC Cost]+{Other Cost}+[Balloons Cost])/{Container.Nominal Capacity}*1000</t>
+  </si>
+  <si>
+    <t>{Container Quantity}*[BatterySystem.BatteryPack Quantity]*[BatteryPack.Cell Quantity]*{Cell.Total Cost Per kWh}</t>
+  </si>
+  <si>
+    <t>{Container.System Nominal Power Daily}*[Constants.Global.CONT_BoS_pkWp]/1000</t>
+  </si>
+  <si>
+    <t>{Container Quantity}*{Container.Balance of System Cost}</t>
   </si>
 </sst>
 </file>
@@ -735,17 +726,17 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1119,10 +1110,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1134,57 +1125,52 @@
     <col min="5" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="14" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="C2" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="D6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1192,7 +1178,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>4</v>
@@ -1204,7 +1190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>7</v>
@@ -1217,7 +1203,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
@@ -1229,7 +1215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="13" t="s">
         <v>12</v>
@@ -1241,536 +1227,530 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="16" t="s">
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="16" t="s">
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="13" t="s">
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="8" t="s">
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="13"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="16" t="s">
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D30" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="16" t="s">
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D31" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="16" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>76</v>
+        <v>119</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="16" t="s">
-        <v>90</v>
+      <c r="B33" t="s">
+        <v>67</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="1"/>
+      <c r="B34" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="16"/>
+    </row>
+    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="16"/>
-    </row>
-    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="8" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="24" t="s">
+      <c r="D39" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4" t="s">
+      <c r="C40" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="25" t="s">
+    </row>
+    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="12" t="s">
+      <c r="C42" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" t="s">
         <v>64</v>
-      </c>
-      <c r="D38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="12">
-        <v>4</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>96</v>
+      <c r="C46" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>101</v>
+        <v>130</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B50"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="17"/>
       <c r="B51" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="17"/>
       <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="17"/>
-      <c r="B53" s="29" t="s">
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="17"/>
-      <c r="B54" t="s">
-        <v>110</v>
+      <c r="B54" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="17"/>
-      <c r="B55" s="29" t="s">
-        <v>105</v>
+      <c r="B55" t="s">
+        <v>110</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
-      <c r="B56" t="s">
-        <v>113</v>
+      <c r="B56" s="29" t="s">
+        <v>111</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
-      <c r="B57" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>115</v>
+      <c r="B57" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="17"/>
-      <c r="B58" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>91</v>
+      <c r="B58" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="17"/>
-      <c r="B59" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>106</v>
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="17"/>
       <c r="B60" s="16" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="17"/>
       <c r="B61" s="16" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="17"/>
       <c r="B62" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="17"/>
       <c r="B63" s="16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="17"/>
       <c r="B64" s="16" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="17"/>
       <c r="B65" s="16" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="17"/>
-      <c r="B66" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>81</v>
-      </c>
+      <c r="B66" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="17"/>
+      <c r="B67"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1785,7 +1765,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1798,7 +1778,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1807,40 +1787,40 @@
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="32">
+        <v>51</v>
+      </c>
+      <c r="C2" s="34">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="7">
         <v>-0.01</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="33">
+        <v>83</v>
+      </c>
+      <c r="C4" s="32">
         <v>-0.25</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -1849,44 +1829,44 @@
     <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="32">
+        <v>51</v>
+      </c>
+      <c r="C6" s="34">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="7">
         <v>-0.01</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="33">
+        <v>83</v>
+      </c>
+      <c r="C8" s="32">
         <v>-0.25</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
@@ -1895,7 +1875,7 @@
     <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="30">
         <v>20</v>
@@ -1904,7 +1884,7 @@
     </row>
     <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="30">
         <v>72</v>
@@ -1915,7 +1895,7 @@
     </row>
     <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C12" s="30">
         <v>0.06</v>
@@ -1924,7 +1904,7 @@
     </row>
     <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C13" s="30">
         <v>24</v>
@@ -1933,18 +1913,18 @@
     </row>
     <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="31">
+        <v>78</v>
+      </c>
+      <c r="C14" s="33">
         <v>0.01</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C15" s="4">
         <v>305</v>
@@ -1955,7 +1935,7 @@
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -1975,7 +1955,7 @@
         <v>40</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1987,7 +1967,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1998,18 +1978,18 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="34">
+        <v>60</v>
+      </c>
+      <c r="C21" s="35">
         <v>0.1</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2027,13 +2007,13 @@
     </row>
     <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="26" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C24" s="7">
         <v>0.2</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
